--- a/F_dataset/DUD-E/MAPK2/MAPK2_prepare/MAPK2_total.xlsx
+++ b/F_dataset/DUD-E/MAPK2/MAPK2_prepare/MAPK2_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T206"/>
+  <dimension ref="A1:T180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10917,2190 +10917,6 @@
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>CHEMBL2163609</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>1</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Cc1c(N[C@H]2CCCNC2)nc2ccnn2c1Nc1ccc(C(=O)NC2CCCC2)cc1</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Cc1c(N[C@H]2CCCNC2)nc2ccnn2c1Nc1ccc(C(=O)NC2CCCC2)cc1</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
-        <v>433.56</v>
-      </c>
-      <c r="H181" t="n">
-        <v>4</v>
-      </c>
-      <c r="I181" t="n">
-        <v>6</v>
-      </c>
-      <c r="J181" t="n">
-        <v>6</v>
-      </c>
-      <c r="K181" t="n">
-        <v>5</v>
-      </c>
-      <c r="L181" t="n">
-        <v>3</v>
-      </c>
-      <c r="M181" t="n">
-        <v>95.38</v>
-      </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q181" t="n">
-        <v>140</v>
-      </c>
-      <c r="R181" t="inlineStr">
-        <is>
-          <t>CHEMBL2167126</t>
-        </is>
-      </c>
-      <c r="S181" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAP-K2 using KKLNRTLSVA as substrate and [33P]-gamma-ATP after 30 mins by liquid scintillation counter</t>
-        </is>
-      </c>
-      <c r="T181" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>CHEMBL603322</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>1</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>NC(=O)CCn1cc(-c2cc(-c3cc4ccccc4s3)c3[nH]ncc3c2)c2nc(N)ncc21</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>NC(=O)CCn1cc(-c2cc(-c3cc4ccccc4s3)c3[nH]ncc3c2)c2nc(N)ncc21</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
-        <v>453.53</v>
-      </c>
-      <c r="H182" t="n">
-        <v>3</v>
-      </c>
-      <c r="I182" t="n">
-        <v>5</v>
-      </c>
-      <c r="J182" t="n">
-        <v>5</v>
-      </c>
-      <c r="K182" t="n">
-        <v>6</v>
-      </c>
-      <c r="L182" t="n">
-        <v>6</v>
-      </c>
-      <c r="M182" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P182" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q182" t="n">
-        <v>41</v>
-      </c>
-      <c r="R182" t="inlineStr">
-        <is>
-          <t>CHEMBL1072653</t>
-        </is>
-      </c>
-      <c r="S182" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2</t>
-        </is>
-      </c>
-      <c r="T182" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>CHEMBL389657</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>1</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>N#Cc1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>N#Cc1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
-        <v>314.35</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>3</v>
-      </c>
-      <c r="J183" t="n">
-        <v>2</v>
-      </c>
-      <c r="K183" t="n">
-        <v>4</v>
-      </c>
-      <c r="L183" t="n">
-        <v>3</v>
-      </c>
-      <c r="M183" t="n">
-        <v>81.56999999999999</v>
-      </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O183" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P183" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q183" t="n">
-        <v>62</v>
-      </c>
-      <c r="R183" t="inlineStr">
-        <is>
-          <t>CHEMBL904788</t>
-        </is>
-      </c>
-      <c r="S183" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2</t>
-        </is>
-      </c>
-      <c r="T183" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>CHEMBL3706775</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>1</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>N#Cc1c(N)cc2c(c1N)Cc1ccccc1O2</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>N#Cc1c(N)cc2c(c1N)Cc1ccccc1O2</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
-        <v>237.26</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>4</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0</v>
-      </c>
-      <c r="K184" t="n">
-        <v>3</v>
-      </c>
-      <c r="L184" t="n">
-        <v>3</v>
-      </c>
-      <c r="M184" t="n">
-        <v>85.06</v>
-      </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q184" t="n">
-        <v>560</v>
-      </c>
-      <c r="R184" t="inlineStr">
-        <is>
-          <t>CHEMBL832345</t>
-        </is>
-      </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>Concentration of 50% inhibition by compound towards mitogen activated protein kinase -activated protein kinase 2</t>
-        </is>
-      </c>
-      <c r="T184" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>CHEMBL245682</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>1</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4ncc(C(N)=O)s4)cc3c21</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4ncc(C(N)=O)s4)cc3c21</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G185" t="n">
-        <v>369.41</v>
-      </c>
-      <c r="H185" t="n">
-        <v>4</v>
-      </c>
-      <c r="I185" t="n">
-        <v>4</v>
-      </c>
-      <c r="J185" t="n">
-        <v>3</v>
-      </c>
-      <c r="K185" t="n">
-        <v>4</v>
-      </c>
-      <c r="L185" t="n">
-        <v>3</v>
-      </c>
-      <c r="M185" t="n">
-        <v>129.97</v>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P185" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q185" t="n">
-        <v>120</v>
-      </c>
-      <c r="R185" t="inlineStr">
-        <is>
-          <t>CHEMBL923957</t>
-        </is>
-      </c>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2 after 30 mins by DELFIA</t>
-        </is>
-      </c>
-      <c r="T185" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>CHEMBL1783713</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>1</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>CC(C)(C)NC(=O)Nc1ccc(NC(=S)NCc2nc(C3CC3)cnc2N)cc1</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>CC(C)(C)NC(=O)Nc1ccc(NC(=S)NCc2nc(C3CC3)cnc2N)cc1</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G186" t="n">
-        <v>413.55</v>
-      </c>
-      <c r="H186" t="n">
-        <v>5</v>
-      </c>
-      <c r="I186" t="n">
-        <v>7</v>
-      </c>
-      <c r="J186" t="n">
-        <v>5</v>
-      </c>
-      <c r="K186" t="n">
-        <v>3</v>
-      </c>
-      <c r="L186" t="n">
-        <v>2</v>
-      </c>
-      <c r="M186" t="n">
-        <v>116.99</v>
-      </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P186" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q186" t="n">
-        <v>83</v>
-      </c>
-      <c r="R186" t="inlineStr">
-        <is>
-          <t>CHEMBL1786602</t>
-        </is>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2 using biotin-LCAYSRALSRQLSSGVSEIRH substrate</t>
-        </is>
-      </c>
-      <c r="T186" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>CHEMBL1801311</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>1</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Cn1c2c(c3c1C1(CNC1)CNC3=O)CCc1cnc(-c3ccccc3F)cc1-2</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Cn1c2c(c3c1C1(CNC1)CNC3=O)CCc1cnc(-c3ccccc3F)cc1-2</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G187" t="n">
-        <v>388.45</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3</v>
-      </c>
-      <c r="J187" t="n">
-        <v>1</v>
-      </c>
-      <c r="K187" t="n">
-        <v>6</v>
-      </c>
-      <c r="L187" t="n">
-        <v>3</v>
-      </c>
-      <c r="M187" t="n">
-        <v>58.95</v>
-      </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q187" t="n">
-        <v>20</v>
-      </c>
-      <c r="R187" t="inlineStr">
-        <is>
-          <t>CHEMBL1805885</t>
-        </is>
-      </c>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>Inhibition of human MK2 using biotinyl-AYSRALSRQLSSGVSEIRCOOH as substrate after 45 mins by FRET analysis</t>
-        </is>
-      </c>
-      <c r="T187" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>CHEMBL1801314</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>1</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>CNCc1[nH]c2c(ccc3cnc(/C=C/c4ccccc4)cc32)c1C(=O)O</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>CNCc1[nH]c2c(ccc3cnc(/C=C/c4ccccc4)cc32)c1C(=O)O</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G188" t="n">
-        <v>357.41</v>
-      </c>
-      <c r="H188" t="n">
-        <v>3</v>
-      </c>
-      <c r="I188" t="n">
-        <v>4</v>
-      </c>
-      <c r="J188" t="n">
-        <v>5</v>
-      </c>
-      <c r="K188" t="n">
-        <v>4</v>
-      </c>
-      <c r="L188" t="n">
-        <v>4</v>
-      </c>
-      <c r="M188" t="n">
-        <v>78.01000000000001</v>
-      </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P188" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q188" t="n">
-        <v>60</v>
-      </c>
-      <c r="R188" t="inlineStr">
-        <is>
-          <t>CHEMBL1805901</t>
-        </is>
-      </c>
-      <c r="S188" t="inlineStr">
-        <is>
-          <t>Inhibition of human MK2 using hsp27 peptide biotinyl-AYSRALSRQLSSGVSEIRCOOH as substrate after 45 mins by FRET assay</t>
-        </is>
-      </c>
-      <c r="T188" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>CHEMBL2017463</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>1</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Cn1ccnc1CN(C(=O)c1ccc(-c2ccc(Cl)cc2)o1)c1ccc(N2CCNCC2)cc1</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Cn1ccnc1CN(C(=O)c1ccc(-c2ccc(Cl)cc2)o1)c1ccc(N2CCNCC2)cc1</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
-        <v>475.98</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>5</v>
-      </c>
-      <c r="J189" t="n">
-        <v>6</v>
-      </c>
-      <c r="K189" t="n">
-        <v>5</v>
-      </c>
-      <c r="L189" t="n">
-        <v>4</v>
-      </c>
-      <c r="M189" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q189" t="n">
-        <v>100</v>
-      </c>
-      <c r="R189" t="inlineStr">
-        <is>
-          <t>CHEMBL2019904</t>
-        </is>
-      </c>
-      <c r="S189" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2 using Acam peptide as substrate incubated for 30 mins prior to substrate addition measured after 10 mins using 100 uM ATP by DELFIA assay</t>
-        </is>
-      </c>
-      <c r="T189" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>CHEMBL603469</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>1</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
-        <v>439.47</v>
-      </c>
-      <c r="H190" t="n">
-        <v>3</v>
-      </c>
-      <c r="I190" t="n">
-        <v>4</v>
-      </c>
-      <c r="J190" t="n">
-        <v>1</v>
-      </c>
-      <c r="K190" t="n">
-        <v>8</v>
-      </c>
-      <c r="L190" t="n">
-        <v>5</v>
-      </c>
-      <c r="M190" t="n">
-        <v>88.65000000000001</v>
-      </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O190" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P190" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q190" t="n">
-        <v>230</v>
-      </c>
-      <c r="R190" t="inlineStr">
-        <is>
-          <t>CHEMBL1244498</t>
-        </is>
-      </c>
-      <c r="S190" t="inlineStr">
-        <is>
-          <t>Binding affinity to MAPKAPK2</t>
-        </is>
-      </c>
-      <c r="T190" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>CHEMBL515940</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>0</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>C=C1CC[C@H]2[C@@](C)(CC[C@H]3C(C)(C)CCC[C@]23C)[C@@H]1CC1OC(=O)C=C1CO</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>C=C1CC[C@@H]2[C@@]3(C)CCCC(C)(C)[C@@H]3CC[C@@]2(C)[C@@H]1CC1OC(=O)C=C1CO</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G191" t="n">
-        <v>386.58</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3</v>
-      </c>
-      <c r="J191" t="n">
-        <v>3</v>
-      </c>
-      <c r="K191" t="n">
-        <v>4</v>
-      </c>
-      <c r="L191" t="n">
-        <v>0</v>
-      </c>
-      <c r="M191" t="n">
-        <v>46.53</v>
-      </c>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O191" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P191" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q191" t="n">
-        <v>90000</v>
-      </c>
-      <c r="R191" t="inlineStr">
-        <is>
-          <t>CHEMBL950672</t>
-        </is>
-      </c>
-      <c r="S191" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAPK2 assessed as [33P] incorporation by scintillation proximity assay</t>
-        </is>
-      </c>
-      <c r="T191" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>CHEMBL466701</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>0</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>C[C@@H](Nc1c(Nc2ccncc2)c(=O)c1=O)C1CCCCC1</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>C[C@@H](Nc1c(Nc2ccncc2)c(=O)c1=O)C1CCCCC1</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G192" t="n">
-        <v>299.37</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>5</v>
-      </c>
-      <c r="J192" t="n">
-        <v>5</v>
-      </c>
-      <c r="K192" t="n">
-        <v>3</v>
-      </c>
-      <c r="L192" t="n">
-        <v>2</v>
-      </c>
-      <c r="M192" t="n">
-        <v>71.09</v>
-      </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O192" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P192" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q192" t="n">
-        <v>65000</v>
-      </c>
-      <c r="R192" t="inlineStr">
-        <is>
-          <t>CHEMBL1011420</t>
-        </is>
-      </c>
-      <c r="S192" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant MK2</t>
-        </is>
-      </c>
-      <c r="T192" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>CHEMBL487191</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>0</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>CCCc1cc(=O)c2c(Cc3cc(O)cc(=O)o3)cccc2o1</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>CCCc1cc(=O)c2c(Cc3cc(O)cc(=O)o3)cccc2o1</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G193" t="n">
-        <v>312.32</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>5</v>
-      </c>
-      <c r="J193" t="n">
-        <v>4</v>
-      </c>
-      <c r="K193" t="n">
-        <v>3</v>
-      </c>
-      <c r="L193" t="n">
-        <v>3</v>
-      </c>
-      <c r="M193" t="n">
-        <v>80.65000000000001</v>
-      </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P193" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q193" t="n">
-        <v>130000</v>
-      </c>
-      <c r="R193" t="inlineStr">
-        <is>
-          <t>CHEMBL998215</t>
-        </is>
-      </c>
-      <c r="S193" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant MK2 by ELISA</t>
-        </is>
-      </c>
-      <c r="T193" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>CHEMBL1813799</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>0</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Cn1nc2c3c(nc(-c4ccccc4)cc31)NCC(=O)N2</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Cn1nc2c3c(nc(-c4ccccc4)cc31)NCC(=O)N2</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G194" t="n">
-        <v>279.3</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>4</v>
-      </c>
-      <c r="J194" t="n">
-        <v>1</v>
-      </c>
-      <c r="K194" t="n">
-        <v>4</v>
-      </c>
-      <c r="L194" t="n">
-        <v>3</v>
-      </c>
-      <c r="M194" t="n">
-        <v>71.84</v>
-      </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P194" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q194" t="n">
-        <v>8</v>
-      </c>
-      <c r="R194" t="inlineStr">
-        <is>
-          <t>CHEMBL1815689</t>
-        </is>
-      </c>
-      <c r="S194" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAPK2 at 30 uM by microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T194" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>CHEMBL2425144</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>0</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2ccc(-n3cnc4c(N)ncnc43)cc2)cc1</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2ccc(-n3cnc4c(N)ncnc43)cc2)cc1</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G195" t="n">
-        <v>481.56</v>
-      </c>
-      <c r="H195" t="n">
-        <v>3</v>
-      </c>
-      <c r="I195" t="n">
-        <v>6</v>
-      </c>
-      <c r="J195" t="n">
-        <v>4</v>
-      </c>
-      <c r="K195" t="n">
-        <v>5</v>
-      </c>
-      <c r="L195" t="n">
-        <v>5</v>
-      </c>
-      <c r="M195" t="n">
-        <v>128.57</v>
-      </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P195" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q195" t="n">
-        <v>-13</v>
-      </c>
-      <c r="R195" t="inlineStr">
-        <is>
-          <t>CHEMBL2429596</t>
-        </is>
-      </c>
-      <c r="S195" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAP-K2 (unknown origin) at 1 uM by [33P]-ATP filter-binding assay</t>
-        </is>
-      </c>
-      <c r="T195" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>CHEMBL483518</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>0</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>COc1cccc(Nc2cc(N3CCC[C@H]3C(=O)NCCc3ccc(O)cc3)nc(N)n2)c1</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>COc1cccc(Nc2cc(N3CCC[C@H]3C(=O)NCCc3ccc(O)cc3)nc(N)n2)c1</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G196" t="n">
-        <v>448.53</v>
-      </c>
-      <c r="H196" t="n">
-        <v>4</v>
-      </c>
-      <c r="I196" t="n">
-        <v>8</v>
-      </c>
-      <c r="J196" t="n">
-        <v>8</v>
-      </c>
-      <c r="K196" t="n">
-        <v>4</v>
-      </c>
-      <c r="L196" t="n">
-        <v>3</v>
-      </c>
-      <c r="M196" t="n">
-        <v>125.63</v>
-      </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P196" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q196" t="n">
-        <v>0</v>
-      </c>
-      <c r="R196" t="inlineStr">
-        <is>
-          <t>CHEMBL953383</t>
-        </is>
-      </c>
-      <c r="S196" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAPK2 at 10 uM by HTRF assay relative to control</t>
-        </is>
-      </c>
-      <c r="T196" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>CHEMBL407373</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>0</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G197" t="n">
-        <v>298.32</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>3</v>
-      </c>
-      <c r="J197" t="n">
-        <v>4</v>
-      </c>
-      <c r="K197" t="n">
-        <v>3</v>
-      </c>
-      <c r="L197" t="n">
-        <v>3</v>
-      </c>
-      <c r="M197" t="n">
-        <v>70.67</v>
-      </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P197" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q197" t="n">
-        <v>5</v>
-      </c>
-      <c r="R197" t="inlineStr">
-        <is>
-          <t>CHEMBL732487</t>
-        </is>
-      </c>
-      <c r="S197" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAP-K2 in presence of 10 uM ATP</t>
-        </is>
-      </c>
-      <c r="T197" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>CHEMBL464238</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>0</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>O=C(NOCCO)c1cc(COCCO)c(F)c(F)c1Nc1ccc(I)cc1F</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>O=C(NOCCO)c1cc(COCCO)c(F)c(F)c1Nc1ccc(I)cc1F</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G198" t="n">
-        <v>526.25</v>
-      </c>
-      <c r="H198" t="n">
-        <v>4</v>
-      </c>
-      <c r="I198" t="n">
-        <v>6</v>
-      </c>
-      <c r="J198" t="n">
-        <v>10</v>
-      </c>
-      <c r="K198" t="n">
-        <v>2</v>
-      </c>
-      <c r="L198" t="n">
-        <v>2</v>
-      </c>
-      <c r="M198" t="n">
-        <v>100.05</v>
-      </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O198" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P198" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q198" t="n">
-        <v>5</v>
-      </c>
-      <c r="R198" t="inlineStr">
-        <is>
-          <t>CHEMBL1011756</t>
-        </is>
-      </c>
-      <c r="S198" t="inlineStr">
-        <is>
-          <t>Binding affinity to MK2 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T198" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>CHEMBL3629317</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>0</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Nc1ncc(Cl)nc1-c1nsc(Nc2ccccc2)n1</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Nc1ncc(Cl)nc1-c1nsc(Nc2ccccc2)n1</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G199" t="n">
-        <v>304.77</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>6</v>
-      </c>
-      <c r="J199" t="n">
-        <v>3</v>
-      </c>
-      <c r="K199" t="n">
-        <v>3</v>
-      </c>
-      <c r="L199" t="n">
-        <v>3</v>
-      </c>
-      <c r="M199" t="n">
-        <v>89.61</v>
-      </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O199" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P199" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q199" t="n">
-        <v>6</v>
-      </c>
-      <c r="R199" t="inlineStr">
-        <is>
-          <t>CHEMBL3630369</t>
-        </is>
-      </c>
-      <c r="S199" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2 (unknown origin) at 20 uM by scintillation proximity assay</t>
-        </is>
-      </c>
-      <c r="T199" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>CHEMBL1170747</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>0</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>NCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>NCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G200" t="n">
-        <v>290.33</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>4</v>
-      </c>
-      <c r="J200" t="n">
-        <v>3</v>
-      </c>
-      <c r="K200" t="n">
-        <v>4</v>
-      </c>
-      <c r="L200" t="n">
-        <v>4</v>
-      </c>
-      <c r="M200" t="n">
-        <v>84.89</v>
-      </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q200" t="n">
-        <v>5</v>
-      </c>
-      <c r="R200" t="inlineStr">
-        <is>
-          <t>CHEMBL1173992</t>
-        </is>
-      </c>
-      <c r="S200" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAP2 at 10 uM by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T200" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>CHEMBL187985</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>0</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G201" t="n">
-        <v>299.34</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>7</v>
-      </c>
-      <c r="J201" t="n">
-        <v>3</v>
-      </c>
-      <c r="K201" t="n">
-        <v>4</v>
-      </c>
-      <c r="L201" t="n">
-        <v>3</v>
-      </c>
-      <c r="M201" t="n">
-        <v>98.89</v>
-      </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O201" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P201" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q201" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="R201" t="inlineStr">
-        <is>
-          <t>CHEMBL1961968</t>
-        </is>
-      </c>
-      <c r="S201" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T201" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>CHEMBL1909403</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>0</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G202" t="n">
-        <v>431.39</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>5</v>
-      </c>
-      <c r="J202" t="n">
-        <v>6</v>
-      </c>
-      <c r="K202" t="n">
-        <v>4</v>
-      </c>
-      <c r="L202" t="n">
-        <v>4</v>
-      </c>
-      <c r="M202" t="n">
-        <v>75.34</v>
-      </c>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q202" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R202" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S202" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T202" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>CHEMBL218932</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>0</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>CNC(=O)Oc1cc(C)c(/C=C/c2cncc(C(=O)NC)c2)c(C)c1</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>CNC(=O)Oc1cc(C)c(/C=C/c2cncc(C(=O)NC)c2)c(C)c1</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G203" t="n">
-        <v>339.4</v>
-      </c>
-      <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>4</v>
-      </c>
-      <c r="J203" t="n">
-        <v>4</v>
-      </c>
-      <c r="K203" t="n">
-        <v>2</v>
-      </c>
-      <c r="L203" t="n">
-        <v>2</v>
-      </c>
-      <c r="M203" t="n">
-        <v>80.31999999999999</v>
-      </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P203" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q203" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="R203" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S203" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T203" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>CHEMBL233001</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>0</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G204" t="n">
-        <v>332.43</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>2</v>
-      </c>
-      <c r="J204" t="n">
-        <v>2</v>
-      </c>
-      <c r="K204" t="n">
-        <v>4</v>
-      </c>
-      <c r="L204" t="n">
-        <v>3</v>
-      </c>
-      <c r="M204" t="n">
-        <v>52.89</v>
-      </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O204" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P204" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q204" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="R204" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S204" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T204" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>CHEMBL268885</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>0</v>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>COc1c(C(N)=O)cc(-c2ccc(Cl)cc2)cc1-c1ccc(S(N)(=O)=O)cc1</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>COc1c(C(N)=O)cc(-c2ccc(Cl)cc2)cc1-c1ccc(S(N)(=O)=O)cc1</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
-        <v>416.89</v>
-      </c>
-      <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>4</v>
-      </c>
-      <c r="J205" t="n">
-        <v>5</v>
-      </c>
-      <c r="K205" t="n">
-        <v>3</v>
-      </c>
-      <c r="L205" t="n">
-        <v>3</v>
-      </c>
-      <c r="M205" t="n">
-        <v>112.48</v>
-      </c>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P205" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q205" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R205" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S205" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T205" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>CHEMBL352222</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>0</v>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cccc([N+](=O)[O-])c2)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cccc([N+](=O)[O-])c2)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G206" t="n">
-        <v>394.17</v>
-      </c>
-      <c r="H206" t="n">
-        <v>3</v>
-      </c>
-      <c r="I206" t="n">
-        <v>6</v>
-      </c>
-      <c r="J206" t="n">
-        <v>4</v>
-      </c>
-      <c r="K206" t="n">
-        <v>3</v>
-      </c>
-      <c r="L206" t="n">
-        <v>2</v>
-      </c>
-      <c r="M206" t="n">
-        <v>121.57</v>
-      </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P206" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q206" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R206" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S206" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T206" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
